--- a/reports/e1.xlsx
+++ b/reports/e1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>TinkerPro IT</t>
   </si>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">POS Terminal No: </t>
   </si>
   <si>
-    <t>Date and Time Generated: July 18, 2024 06:25:05 PM</t>
+    <t>Date and Time Generated: July 20, 2024 05:58:38 PM</t>
   </si>
   <si>
     <t>User ID: A003</t>
@@ -135,24 +135,6 @@
   </si>
   <si>
     <t>Solo Parent</t>
-  </si>
-  <si>
-    <t>2024-01-01 - 2024-12-31</t>
-  </si>
-  <si>
-    <t>00000001</t>
-  </si>
-  <si>
-    <t>00000008</t>
-  </si>
-  <si>
-    <t>1,960.48</t>
-  </si>
-  <si>
-    <t>2,422.79</t>
-  </si>
-  <si>
-    <t>2,783.84</t>
   </si>
 </sst>
 </file>
@@ -961,99 +943,37 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2783.84</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2783.84</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="M16" s="8">
-        <v>2.9</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0.86</v>
-      </c>
-      <c r="O16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="P16" s="8">
-        <v>50.16</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>500.0</v>
-      </c>
-      <c r="R16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="S16" s="8">
-        <v>553.92</v>
-      </c>
-      <c r="T16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="U16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="V16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="W16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="X16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Y16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Z16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AA16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AC16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="8">
-        <v>1</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
     </row>
   </sheetData>

--- a/reports/e1.xlsx
+++ b/reports/e1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>TinkerPro IT</t>
   </si>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">POS Terminal No: </t>
   </si>
   <si>
-    <t>Date and Time Generated: July 20, 2024 05:58:38 PM</t>
+    <t>Date and Time Generated: July 22, 2024 11:14:56 AM</t>
   </si>
   <si>
     <t>User ID: A003</t>
@@ -135,6 +135,27 @@
   </si>
   <si>
     <t>Solo Parent</t>
+  </si>
+  <si>
+    <t>2024-01-01 - 2024-12-31</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>1,960.48</t>
+  </si>
+  <si>
+    <t>1,104.08</t>
+  </si>
+  <si>
+    <t>2,422.79</t>
+  </si>
+  <si>
+    <t>2,783.84</t>
   </si>
 </sst>
 </file>
@@ -943,37 +964,99 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
+      <c r="A16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2783.84</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2783.84</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>50.16</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>500.0</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="T16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="U16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="V16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="X16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="8">
+        <v>2</v>
+      </c>
       <c r="AF16" s="8"/>
     </row>
   </sheetData>

--- a/reports/e1.xlsx
+++ b/reports/e1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>TinkerPro IT</t>
   </si>
@@ -113,16 +113,16 @@
     <t>Serial No: 9995</t>
   </si>
   <si>
-    <t>Machine Name: Damnation</t>
+    <t>Machine Name: DESKTOP-VJCK8A2</t>
   </si>
   <si>
     <t xml:space="preserve">POS Terminal No: </t>
   </si>
   <si>
-    <t>Date and Time Generated: July 22, 2024 11:14:56 AM</t>
-  </si>
-  <si>
-    <t>User ID: A003</t>
+    <t>Date and Time Generated: July 22, 2024 06:29:38 PM</t>
+  </si>
+  <si>
+    <t>User ID: A0003</t>
   </si>
   <si>
     <t>SC</t>
@@ -135,27 +135,6 @@
   </si>
   <si>
     <t>Solo Parent</t>
-  </si>
-  <si>
-    <t>2024-01-01 - 2024-12-31</t>
-  </si>
-  <si>
-    <t>00000001</t>
-  </si>
-  <si>
-    <t>00000000</t>
-  </si>
-  <si>
-    <t>1,960.48</t>
-  </si>
-  <si>
-    <t>1,104.08</t>
-  </si>
-  <si>
-    <t>2,422.79</t>
-  </si>
-  <si>
-    <t>2,783.84</t>
   </si>
 </sst>
 </file>
@@ -964,99 +943,37 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2783.84</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2783.84</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="M16" s="8">
-        <v>2.9</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0.86</v>
-      </c>
-      <c r="O16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="P16" s="8">
-        <v>50.16</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>500.0</v>
-      </c>
-      <c r="R16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="T16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="U16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="V16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="W16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="X16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Y16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Z16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AA16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AC16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="8">
-        <v>2</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
     </row>
   </sheetData>

--- a/reports/e1.xlsx
+++ b/reports/e1.xlsx
@@ -113,16 +113,16 @@
     <t>Serial No: 9995</t>
   </si>
   <si>
-    <t>Machine Name: DESKTOP-VJCK8A2</t>
+    <t>Machine Name: DESKTOP-GEVQTGR</t>
   </si>
   <si>
     <t xml:space="preserve">POS Terminal No: </t>
   </si>
   <si>
-    <t>Date and Time Generated: July 22, 2024 06:29:38 PM</t>
-  </si>
-  <si>
-    <t>User ID: A0003</t>
+    <t>Date and Time Generated: July 31, 2024 11:56:52 AM</t>
+  </si>
+  <si>
+    <t>User ID: A003</t>
   </si>
   <si>
     <t>SC</t>

--- a/reports/e1.xlsx
+++ b/reports/e1.xlsx
@@ -119,10 +119,10 @@
     <t xml:space="preserve">POS Terminal No: </t>
   </si>
   <si>
-    <t>Date and Time Generated: July 31, 2024 11:26:26 AM</t>
-  </si>
-  <si>
-    <t>User ID: A003</t>
+    <t>Date and Time Generated: August 8, 2024 05:38:55 PM</t>
+  </si>
+  <si>
+    <t>User ID: A0003</t>
   </si>
   <si>
     <t>SC</t>

--- a/reports/e1.xlsx
+++ b/reports/e1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>TinkerPro IT</t>
   </si>
@@ -113,16 +113,16 @@
     <t>Serial No: 9995</t>
   </si>
   <si>
-    <t>Machine Name: DESKTOP-VJCK8A2</t>
+    <t>Machine Name: DESKTOP-GEVQTGR</t>
   </si>
   <si>
     <t xml:space="preserve">POS Terminal No: </t>
   </si>
   <si>
-    <t>Date and Time Generated: August 8, 2024 05:38:55 PM</t>
-  </si>
-  <si>
-    <t>User ID: A0003</t>
+    <t>Date and Time Generated: August 12, 2024 05:44:11 PM</t>
+  </si>
+  <si>
+    <t>User ID: A003</t>
   </si>
   <si>
     <t>SC</t>
@@ -135,6 +135,21 @@
   </si>
   <si>
     <t>Solo Parent</t>
+  </si>
+  <si>
+    <t>2024-08-01 - 2024-08-31</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>1,671.43</t>
+  </si>
+  <si>
+    <t>1,872.00</t>
+  </si>
+  <si>
+    <t>00000002</t>
   </si>
 </sst>
 </file>
@@ -573,10 +588,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AF16"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A16" sqref="A16:AF16"/>
+      <selection activeCell="A18" sqref="A18:AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -943,38 +958,117 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>1872</v>
+      </c>
+      <c r="E16">
+        <v>1872</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>25887.73</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16">
+        <v>200.57</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>1872</v>
+      </c>
+      <c r="E17">
+        <v>1872</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>25887.73</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>200.57</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/reports/e1.xlsx
+++ b/reports/e1.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
-  <si>
-    <t>TinkerPro IT</t>
-  </si>
-  <si>
-    <t>Kinalumsan Rd. Gun-ob 1615(Albania)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+  <si>
+    <t>TinkerPro Retail Store</t>
+  </si>
+  <si>
+    <t>Kinalumsan Rd. Gun-ob 6015(Philippines)</t>
+  </si>
+  <si>
+    <t>123-456-789-00000</t>
   </si>
   <si>
     <t>BIR SALES SUMMARY  REPORT</t>
@@ -107,19 +110,19 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Software: TinkerPro IT</t>
-  </si>
-  <si>
-    <t>Serial No: 9995</t>
-  </si>
-  <si>
-    <t>Machine Name: DESKTOP-GEVQTGR</t>
+    <t>Software: TinkerPro POS - Wholesale/Retail V1.0</t>
+  </si>
+  <si>
+    <t>Serial No: XXX-XXX-XXX</t>
+  </si>
+  <si>
+    <t>Machine Name: DESKTOP-VJCK8A2</t>
   </si>
   <si>
     <t xml:space="preserve">POS Terminal No: </t>
   </si>
   <si>
-    <t>Date and Time Generated: August 12, 2024 05:44:11 PM</t>
+    <t>Date and Time Generated: August 28, 2024 04:42:02 PM</t>
   </si>
   <si>
     <t>User ID: A003</t>
@@ -135,21 +138,6 @@
   </si>
   <si>
     <t>Solo Parent</t>
-  </si>
-  <si>
-    <t>2024-08-01 - 2024-08-31</t>
-  </si>
-  <si>
-    <t>00000001</t>
-  </si>
-  <si>
-    <t>1,671.43</t>
-  </si>
-  <si>
-    <t>1,872.00</t>
-  </si>
-  <si>
-    <t>00000002</t>
   </si>
 </sst>
 </file>
@@ -588,10 +576,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:AF18"/>
+      <selection activeCell="A16" sqref="A16:AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -682,8 +670,8 @@
       <c r="AF2" s="6"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="6">
-        <v>2147483647</v>
+      <c r="A3" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -719,37 +707,37 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -785,40 +773,40 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -828,7 +816,7 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
@@ -836,25 +824,25 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -870,34 +858,34 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
@@ -920,31 +908,31 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
@@ -958,117 +946,38 @@
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16">
-        <v>1872</v>
-      </c>
-      <c r="E16">
-        <v>1872</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>25887.73</v>
-      </c>
-      <c r="H16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16">
-        <v>200.57</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17">
-        <v>1872</v>
-      </c>
-      <c r="E17">
-        <v>1872</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>25887.73</v>
-      </c>
-      <c r="H17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17">
-        <v>200.57</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
